--- a/led_opp.xlsx
+++ b/led_opp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TRANSITUS25\Documents\GitHub\pr_cts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD94829-84ED-43CA-91B2-7DFFBCBE02C1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DEDDE61-7D49-4940-AF9F-BE294B307A29}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
